--- a/country_continents.xlsx
+++ b/country_continents.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine T\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\UrT-Pickup\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EEC4E8-CF14-447B-8368-0A7A1D7EB4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2351,7 +2352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2670,21 +2671,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3689,10 +3690,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>159</v>
@@ -4269,10 +4270,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
         <v>243</v>
@@ -4669,10 +4670,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
         <v>300</v>
@@ -7109,10 +7110,10 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B222" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C222" t="s">
         <v>654</v>
@@ -7769,10 +7770,10 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B255" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C255" t="s">
         <v>750</v>
@@ -7924,7 +7925,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F263"/>
+  <autoFilter ref="A1:F263" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
